--- a/Base de Datos Torneo MongoDB.xlsx
+++ b/Base de Datos Torneo MongoDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\MONGO\Torneo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5753C5EC-B65C-41C7-8B89-B15517C5D2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77976796-1945-41C1-919A-511F06065A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BCC51C5B-02D6-463B-BAF6-2E00C8163BDF}"/>
   </bookViews>
@@ -320,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -350,6 +350,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -372,15 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD68C130-1644-40E0-8296-8E09B7F42578}">
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O18" sqref="O17:O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,22 +731,22 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="13"/>
+      <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="13"/>
+      <c r="H2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="K2" s="10" t="s">
+      <c r="I2" s="13"/>
+      <c r="K2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -848,11 +845,13 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
@@ -862,9 +861,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
@@ -874,120 +871,84 @@
         <v>17</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:14" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="2:14" ht="243.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
